--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CUCXCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/CUCXCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>CUCXCA</t>
-  </si>
-  <si>
-    <t>2.86390541952566</t>
-  </si>
-  <si>
-    <t>-12.0097792904655</t>
-  </si>
-  <si>
-    <t>-5.62513322571631</t>
-  </si>
-  <si>
-    <t>-0.269383059555423</t>
-  </si>
-  <si>
-    <t>8.79653619806342</t>
-  </si>
-  <si>
-    <t>-8.66524667572072</t>
-  </si>
-  <si>
-    <t>-3.82375728523398</t>
-  </si>
-  <si>
-    <t>-2.27649397167308</t>
-  </si>
-  <si>
-    <t>7.7913179491762</t>
-  </si>
-  <si>
-    <t>-5.01647118167118</t>
-  </si>
-  <si>
-    <t>1.2737454096296</t>
-  </si>
-  <si>
-    <t>-0.337843850254274</t>
-  </si>
-  <si>
-    <t>7.59398764235945</t>
-  </si>
-  <si>
-    <t>-8.40262553702385</t>
-  </si>
-  <si>
-    <t>-0.218165822010647</t>
-  </si>
-  <si>
-    <t>-0.142606440765633</t>
-  </si>
-  <si>
-    <t>8.58843554845397</t>
-  </si>
-  <si>
-    <t>-4.03577952524003</t>
-  </si>
-  <si>
-    <t>0.793169374742078</t>
-  </si>
-  <si>
-    <t>1.19377089578057</t>
-  </si>
-  <si>
-    <t>10.4559562035313</t>
-  </si>
-  <si>
-    <t>1.46091265051479</t>
-  </si>
-  <si>
-    <t>2.87637438372784</t>
-  </si>
-  <si>
-    <t>-0.149566272307254</t>
-  </si>
-  <si>
-    <t>11.5336904467624</t>
-  </si>
-  <si>
-    <t>0.54705537400767</t>
-  </si>
-  <si>
-    <t>3.19556940437306</t>
-  </si>
-  <si>
-    <t>0.298164089441627</t>
-  </si>
-  <si>
-    <t>3.2382232959045</t>
-  </si>
-  <si>
-    <t>1.11220036991099</t>
-  </si>
-  <si>
-    <t>6.51278232914936</t>
-  </si>
-  <si>
-    <t>-7.0492074868491</t>
-  </si>
-  <si>
-    <t>-1.79659591454507</t>
-  </si>
-  <si>
-    <t>-8.09657754509364</t>
-  </si>
-  <si>
-    <t>0.660443600937214</t>
-  </si>
-  <si>
-    <t>-0.133498022777246</t>
-  </si>
-  <si>
-    <t>2.09889331841299</t>
-  </si>
-  <si>
-    <t>-3.53036953197477</t>
-  </si>
-  <si>
-    <t>-1.8694406306158</t>
-  </si>
-  <si>
-    <t>0.862788625890403</t>
-  </si>
-  <si>
-    <t>2.23288496084787</t>
-  </si>
-  <si>
-    <t>-3.65777244717935</t>
-  </si>
-  <si>
-    <t>0.977335457095762</t>
-  </si>
-  <si>
-    <t>-1.4071978265028</t>
-  </si>
-  <si>
-    <t>2.57182431217552</t>
-  </si>
-  <si>
-    <t>-0.318770772641614</t>
-  </si>
-  <si>
-    <t>-2.21531266316742</t>
-  </si>
-  <si>
-    <t>2.71666861509621</t>
-  </si>
-  <si>
-    <t>0.917735956058664</t>
-  </si>
-  <si>
-    <t>-1.41452847517976</t>
-  </si>
-  <si>
-    <t>-2.47476613137485</t>
-  </si>
-  <si>
-    <t>0.851724827117181</t>
-  </si>
-  <si>
-    <t>-2.30813415300574</t>
-  </si>
-  <si>
-    <t>0.218515199796173</t>
-  </si>
-  <si>
-    <t>0.663820710771546</t>
-  </si>
-  <si>
-    <t>1.98889817539782</t>
-  </si>
-  <si>
-    <t>-4.82475416120221</t>
-  </si>
-  <si>
-    <t>0.65295765292089</t>
-  </si>
-  <si>
-    <t>0.674160714725843</t>
-  </si>
-  <si>
-    <t>0.0852039020506368</t>
-  </si>
-  <si>
-    <t>-4.96908491724901</t>
-  </si>
-  <si>
-    <t>-1.40685987118329</t>
-  </si>
-  <si>
-    <t>0.165255000444972</t>
-  </si>
-  <si>
-    <t>-7.15630835631157</t>
-  </si>
-  <si>
-    <t>-0.785555018696357</t>
-  </si>
-  <si>
-    <t>1.04952241165248</t>
-  </si>
-  <si>
-    <t>-1.40565658472386</t>
-  </si>
-  <si>
-    <t>-0.108324458639089</t>
-  </si>
-  <si>
-    <t>-2.18191658874503</t>
-  </si>
-  <si>
-    <t>-0.418206509189815</t>
-  </si>
-  <si>
-    <t>-5.24211819595223</t>
-  </si>
-  <si>
-    <t>3.53756576359734</t>
-  </si>
-  <si>
-    <t>-10.4435915944714</t>
-  </si>
-  <si>
-    <t>-2.0332227763131</t>
-  </si>
-  <si>
-    <t>-1.56539308096072</t>
-  </si>
-  <si>
-    <t>-3.06434973173708</t>
-  </si>
-  <si>
-    <t>-6.09858855606203</t>
-  </si>
-  <si>
-    <t>-27.1986653412376</t>
-  </si>
-  <si>
-    <t>11.4101851074796</t>
-  </si>
-  <si>
-    <t>15.9524077612334</t>
-  </si>
-  <si>
-    <t>5.15897932415334</t>
-  </si>
-  <si>
-    <t>15.1400095629794</t>
-  </si>
-  <si>
-    <t>-1.40408743190628</t>
-  </si>
-  <si>
-    <t>13.684833949058</t>
+    <t>0.0182499524328037</t>
+  </si>
+  <si>
+    <t>-1.86724312711745</t>
+  </si>
+  <si>
+    <t>0.301089199365709</t>
+  </si>
+  <si>
+    <t>-1.47593691466189</t>
+  </si>
+  <si>
+    <t>-0.340977315735451</t>
+  </si>
+  <si>
+    <t>-2.68046648488394</t>
+  </si>
+  <si>
+    <t>-2.84772646888459</t>
+  </si>
+  <si>
+    <t>-0.484617245707454</t>
+  </si>
+  <si>
+    <t>2.45925387896972</t>
+  </si>
+  <si>
+    <t>0.624799425434254</t>
+  </si>
+  <si>
+    <t>1.09232219183192</t>
+  </si>
+  <si>
+    <t>1.7405319126733</t>
+  </si>
+  <si>
+    <t>1.12786412315494</t>
+  </si>
+  <si>
+    <t>-3.86218163663099</t>
+  </si>
+  <si>
+    <t>-3.88642408626235</t>
+  </si>
+  <si>
+    <t>7.04574062370948</t>
+  </si>
+  <si>
+    <t>0.832339632025075</t>
+  </si>
+  <si>
+    <t>-2.78731063623569</t>
+  </si>
+  <si>
+    <t>-1.61815301652189</t>
+  </si>
+  <si>
+    <t>-1.79644490817251</t>
+  </si>
+  <si>
+    <t>8.09809972231813</t>
+  </si>
+  <si>
+    <t>-4.79155886816242</t>
+  </si>
+  <si>
+    <t>1.37369996366083</t>
+  </si>
+  <si>
+    <t>-2.7726716698384</t>
+  </si>
+  <si>
+    <t>0.448170802136076</t>
+  </si>
+  <si>
+    <t>-4.06346825554287</t>
+  </si>
+  <si>
+    <t>4.60230436939722</t>
+  </si>
+  <si>
+    <t>5.04824614760435</t>
+  </si>
+  <si>
+    <t>-10.0162170181131</t>
+  </si>
+  <si>
+    <t>-3.40007708172924</t>
+  </si>
+  <si>
+    <t>-1.30847243078324</t>
+  </si>
+  <si>
+    <t>-7.24700731707303</t>
+  </si>
+  <si>
+    <t>0.495517340954478</t>
+  </si>
+  <si>
+    <t>0.681460001668142</t>
+  </si>
+  <si>
+    <t>-6.03704936274889</t>
+  </si>
+  <si>
+    <t>3.20839867914479</t>
+  </si>
+  <si>
+    <t>-0.287395210594397</t>
+  </si>
+  <si>
+    <t>7.21466799535671</t>
+  </si>
+  <si>
+    <t>-9.04833183971722</t>
+  </si>
+  <si>
+    <t>-3.84947710307745</t>
+  </si>
+  <si>
+    <t>-6.33690009457115</t>
+  </si>
+  <si>
+    <t>1.37809102354586</t>
+  </si>
+  <si>
+    <t>0.638506777083649</t>
+  </si>
+  <si>
+    <t>3.99038200039139</t>
+  </si>
+  <si>
+    <t>-6.97860546727743</t>
+  </si>
+  <si>
+    <t>-10.0192124083792</t>
+  </si>
+  <si>
+    <t>-7.44009094779445</t>
+  </si>
+  <si>
+    <t>4.31404897273659</t>
+  </si>
+  <si>
+    <t>-5.98172530700819</t>
+  </si>
+  <si>
+    <t>-0.139709492292326</t>
+  </si>
+  <si>
+    <t>-5.95602909022402</t>
+  </si>
+  <si>
+    <t>-2.02867339709285</t>
+  </si>
+  <si>
+    <t>-1.70354162211807</t>
+  </si>
+  <si>
+    <t>0.809582565802401</t>
+  </si>
+  <si>
+    <t>-5.34644942515752</t>
+  </si>
+  <si>
+    <t>0.29262974662835</t>
+  </si>
+  <si>
+    <t>-0.519589074807172</t>
+  </si>
+  <si>
+    <t>1.31465283216194</t>
+  </si>
+  <si>
+    <t>2.09519321704569</t>
+  </si>
+  <si>
+    <t>-4.32101242998938</t>
+  </si>
+  <si>
+    <t>2.60511157680151</t>
+  </si>
+  <si>
+    <t>5.31960032077433</t>
+  </si>
+  <si>
+    <t>-1.83261024406843</t>
+  </si>
+  <si>
+    <t>-2.69848161121652</t>
+  </si>
+  <si>
+    <t>-0.167564442572669</t>
+  </si>
+  <si>
+    <t>6.90821048769121</t>
+  </si>
+  <si>
+    <t>-3.11400693409182</t>
+  </si>
+  <si>
+    <t>-1.02574282061559</t>
+  </si>
+  <si>
+    <t>-3.6909601618772</t>
+  </si>
+  <si>
+    <t>-0.0863914611201864</t>
+  </si>
+  <si>
+    <t>2.55863691719067</t>
+  </si>
+  <si>
+    <t>2.11956435268905</t>
+  </si>
+  <si>
+    <t>-10.0419668343368</t>
+  </si>
+  <si>
+    <t>-3.5981894761334</t>
+  </si>
+  <si>
+    <t>2.5829235242506</t>
+  </si>
+  <si>
+    <t>4.05357950181987</t>
+  </si>
+  <si>
+    <t>6.95927771608309</t>
+  </si>
+  <si>
+    <t>55.3075801025856</t>
+  </si>
+  <si>
+    <t>-11.001971805088</t>
+  </si>
+  <si>
+    <t>17.7777896454017</t>
+  </si>
+  <si>
+    <t>32.9334666669843</t>
+  </si>
+  <si>
+    <t>-4.70741498849907</t>
+  </si>
+  <si>
+    <t>-30.3593801994824</t>
+  </si>
+  <si>
+    <t>4.82306827034506</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
